--- a/Document/更新日记/策划/【Titan】脚本更新记录_邱向遥.xlsx
+++ b/Document/更新日记/策划/【Titan】脚本更新记录_邱向遥.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2220" windowWidth="19200" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="19200" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="480">
   <si>
     <t>更新日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1897,6 +1897,46 @@
   </si>
   <si>
     <t>Monster.csv;Effect.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改英雄技能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell.csv;HeroTalentconfig.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打野前三级节奏微调</t>
+  </si>
+  <si>
+    <t>Effect.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">鱼姬被动伤害受普攻系数影响 </t>
+  </si>
+  <si>
+    <t>水晶和基地提升魔法防御</t>
+  </si>
+  <si>
+    <t>Monster.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改装备技能伤害图标</t>
+  </si>
+  <si>
+    <t>修复眼无法转圈的bug；修复真眼无法探草丛的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell.csv;monster.csv;MobaGoods.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2425,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="D243" sqref="D243"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="D248" sqref="D248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -8690,8 +8730,19 @@
         <v>邱向遥【全版本】[内部知晓]:下调法师打塔额外伤害加成。(修改文件:Monster.csv;Effect.csv)</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D243" s="12"/>
+    <row r="243" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A243" s="11">
+        <v>43090</v>
+      </c>
+      <c r="B243" s="9">
+        <v>1</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D243" s="12" t="s">
+        <v>470</v>
+      </c>
       <c r="E243" s="5" t="s">
         <v>9</v>
       </c>
@@ -8703,48 +8754,211 @@
       </c>
       <c r="H243" s="8" t="str">
         <f t="shared" si="46"/>
-        <v>邱向遥【全版本】[内部知晓]:。(修改文件:)</v>
+        <v>邱向遥【全版本】[内部知晓]:修改英雄技能描述。(修改文件:Spell.csv;HeroTalentconfig.csv)</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D244" s="12"/>
-      <c r="F244" s="13"/>
+      <c r="B244" s="9">
+        <v>2</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D244" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G244" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H244" s="8" t="str">
+        <f t="shared" ref="H244:H253" si="47">CONCATENATE(F244,"","【",E244,"】[",G244,"]:",C244,"。(修改文件:",D244,")")</f>
+        <v>邱向遥【全版本】[内部知晓]:打野前三级节奏微调。(修改文件:Effect.csv)</v>
+      </c>
     </row>
     <row r="245" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D245" s="12"/>
-      <c r="F245" s="13"/>
+      <c r="B245" s="9">
+        <v>3</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D245" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G245" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H245" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v>邱向遥【全版本】[内部知晓]:鱼姬被动伤害受普攻系数影响 。(修改文件:Effect.csv)</v>
+      </c>
     </row>
     <row r="246" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D246" s="12"/>
-      <c r="F246" s="13"/>
+      <c r="B246" s="9">
+        <v>4</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D246" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G246" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H246" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v>邱向遥【全版本】[内部知晓]:水晶和基地提升魔法防御。(修改文件:Monster.csv)</v>
+      </c>
     </row>
     <row r="247" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D247" s="12"/>
-      <c r="F247" s="13"/>
-    </row>
-    <row r="248" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D248" s="12"/>
-      <c r="F248" s="13"/>
+      <c r="A247" s="11">
+        <v>43091</v>
+      </c>
+      <c r="B247" s="9">
+        <v>1</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D247" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G247" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H247" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v>邱向遥【全版本】[内部知晓]:修改装备技能伤害图标。(修改文件:Spell.csv)</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="B248" s="9">
+        <v>2</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G248" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H248" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v>邱向遥【全版本】[内部知晓]:修复眼无法转圈的bug；修复真眼无法探草丛的问题。(修改文件:Spell.csv;monster.csv;MobaGoods.csv)</v>
+      </c>
     </row>
     <row r="249" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D249" s="12"/>
-      <c r="F249" s="13"/>
+      <c r="E249" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G249" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H249" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v>邱向遥【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
     </row>
     <row r="250" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D250" s="12"/>
-      <c r="F250" s="13"/>
+      <c r="E250" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G250" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H250" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v>邱向遥【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
     </row>
     <row r="251" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D251" s="12"/>
-      <c r="F251" s="13"/>
+      <c r="E251" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G251" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H251" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v>邱向遥【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
     </row>
     <row r="252" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D252" s="12"/>
-      <c r="F252" s="13"/>
+      <c r="E252" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G252" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H252" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v>邱向遥【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
     </row>
     <row r="253" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D253" s="12"/>
-      <c r="F253" s="13"/>
+      <c r="E253" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G253" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H253" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v>邱向遥【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
     </row>
     <row r="254" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D254" s="12"/>
@@ -8787,10 +9001,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 JC1 SY1 ACU1 AMQ1 AWM1 BGI1 BQE1 CAA1 CJW1 CTS1 DDO1 DNK1 DXG1 EHC1 EQY1 FAU1 FKQ1 FUM1 GEI1 GOE1 GYA1 HHW1 HRS1 IBO1 ILK1 IVG1 JFC1 JOY1 JYU1 KIQ1 KSM1 LCI1 LME1 LWA1 MFW1 MPS1 MZO1 NJK1 NTG1 ODC1 OMY1 OWU1 PGQ1 PQM1 QAI1 QKE1 QUA1 RDW1 RNS1 RXO1 SHK1 SRG1 TBC1 TKY1 TUU1 UEQ1 UOM1 UYI1 VIE1 VSA1 WBW1 WLS1 WVO1">
       <formula1>"内部知晓,新增,修改"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JC2:JC23 SY2:SY23 WVO2:WVO23 WLS2:WLS23 WBW2:WBW23 VSA2:VSA23 VIE2:VIE23 UYI2:UYI23 UOM2:UOM23 UEQ2:UEQ23 TUU2:TUU23 TKY2:TKY23 TBC2:TBC23 SRG2:SRG23 SHK2:SHK23 RXO2:RXO23 RNS2:RNS23 RDW2:RDW23 QUA2:QUA23 QKE2:QKE23 QAI2:QAI23 PQM2:PQM23 PGQ2:PGQ23 OWU2:OWU23 OMY2:OMY23 ODC2:ODC23 NTG2:NTG23 NJK2:NJK23 MZO2:MZO23 MPS2:MPS23 MFW2:MFW23 LWA2:LWA23 LME2:LME23 LCI2:LCI23 KSM2:KSM23 KIQ2:KIQ23 JYU2:JYU23 JOY2:JOY23 JFC2:JFC23 IVG2:IVG23 ILK2:ILK23 IBO2:IBO23 HRS2:HRS23 HHW2:HHW23 GYA2:GYA23 GOE2:GOE23 GEI2:GEI23 FUM2:FUM23 FKQ2:FKQ23 FAU2:FAU23 EQY2:EQY23 EHC2:EHC23 DXG2:DXG23 DNK2:DNK23 DDO2:DDO23 CTS2:CTS23 CJW2:CJW23 CAA2:CAA23 BQE2:BQE23 BGI2:BGI23 AWM2:AWM23 AMQ2:AMQ23 ACU2:ACU23 G2:G243">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JC2:JC23 SY2:SY23 WVO2:WVO23 WLS2:WLS23 WBW2:WBW23 VSA2:VSA23 VIE2:VIE23 UYI2:UYI23 UOM2:UOM23 UEQ2:UEQ23 TUU2:TUU23 TKY2:TKY23 TBC2:TBC23 SRG2:SRG23 SHK2:SHK23 RXO2:RXO23 RNS2:RNS23 RDW2:RDW23 QUA2:QUA23 QKE2:QKE23 QAI2:QAI23 PQM2:PQM23 PGQ2:PGQ23 OWU2:OWU23 OMY2:OMY23 ODC2:ODC23 NTG2:NTG23 NJK2:NJK23 MZO2:MZO23 MPS2:MPS23 MFW2:MFW23 LWA2:LWA23 LME2:LME23 LCI2:LCI23 KSM2:KSM23 KIQ2:KIQ23 JYU2:JYU23 JOY2:JOY23 JFC2:JFC23 IVG2:IVG23 ILK2:ILK23 IBO2:IBO23 HRS2:HRS23 HHW2:HHW23 GYA2:GYA23 GOE2:GOE23 GEI2:GEI23 FUM2:FUM23 FKQ2:FKQ23 FAU2:FAU23 EQY2:EQY23 EHC2:EHC23 DXG2:DXG23 DNK2:DNK23 DDO2:DDO23 CTS2:CTS23 CJW2:CJW23 CAA2:CAA23 BQE2:BQE23 BGI2:BGI23 AWM2:AWM23 AMQ2:AMQ23 ACU2:ACU23 G2:G253">
       <formula1>$Q$2:$Q$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JA2:JA23 SW2:SW23 WVM2:WVM23 WLQ2:WLQ23 WBU2:WBU23 VRY2:VRY23 VIC2:VIC23 UYG2:UYG23 UOK2:UOK23 UEO2:UEO23 TUS2:TUS23 TKW2:TKW23 TBA2:TBA23 SRE2:SRE23 SHI2:SHI23 RXM2:RXM23 RNQ2:RNQ23 RDU2:RDU23 QTY2:QTY23 QKC2:QKC23 QAG2:QAG23 PQK2:PQK23 PGO2:PGO23 OWS2:OWS23 OMW2:OMW23 ODA2:ODA23 NTE2:NTE23 NJI2:NJI23 MZM2:MZM23 MPQ2:MPQ23 MFU2:MFU23 LVY2:LVY23 LMC2:LMC23 LCG2:LCG23 KSK2:KSK23 KIO2:KIO23 JYS2:JYS23 JOW2:JOW23 JFA2:JFA23 IVE2:IVE23 ILI2:ILI23 IBM2:IBM23 HRQ2:HRQ23 HHU2:HHU23 GXY2:GXY23 GOC2:GOC23 GEG2:GEG23 FUK2:FUK23 FKO2:FKO23 FAS2:FAS23 EQW2:EQW23 EHA2:EHA23 DXE2:DXE23 DNI2:DNI23 DDM2:DDM23 CTQ2:CTQ23 CJU2:CJU23 BZY2:BZY23 BQC2:BQC23 BGG2:BGG23 AWK2:AWK23 AMO2:AMO23 ACS2:ACS23 E2:E243">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JA2:JA23 SW2:SW23 WVM2:WVM23 WLQ2:WLQ23 WBU2:WBU23 VRY2:VRY23 VIC2:VIC23 UYG2:UYG23 UOK2:UOK23 UEO2:UEO23 TUS2:TUS23 TKW2:TKW23 TBA2:TBA23 SRE2:SRE23 SHI2:SHI23 RXM2:RXM23 RNQ2:RNQ23 RDU2:RDU23 QTY2:QTY23 QKC2:QKC23 QAG2:QAG23 PQK2:PQK23 PGO2:PGO23 OWS2:OWS23 OMW2:OMW23 ODA2:ODA23 NTE2:NTE23 NJI2:NJI23 MZM2:MZM23 MPQ2:MPQ23 MFU2:MFU23 LVY2:LVY23 LMC2:LMC23 LCG2:LCG23 KSK2:KSK23 KIO2:KIO23 JYS2:JYS23 JOW2:JOW23 JFA2:JFA23 IVE2:IVE23 ILI2:ILI23 IBM2:IBM23 HRQ2:HRQ23 HHU2:HHU23 GXY2:GXY23 GOC2:GOC23 GEG2:GEG23 FUK2:FUK23 FKO2:FKO23 FAS2:FAS23 EQW2:EQW23 EHA2:EHA23 DXE2:DXE23 DNI2:DNI23 DDM2:DDM23 CTQ2:CTQ23 CJU2:CJU23 BZY2:BZY23 BQC2:BQC23 BGG2:BGG23 AWK2:AWK23 AMO2:AMO23 ACS2:ACS23 E2:E253">
       <formula1>$O$2:$O$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Document/更新日记/策划/【Titan】脚本更新记录_邱向遥.xlsx
+++ b/Document/更新日记/策划/【Titan】脚本更新记录_邱向遥.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="19200" windowHeight="9480"/>
+    <workbookView xWindow="0" yWindow="2280" windowWidth="19200" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="498">
   <si>
     <t>更新日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1937,6 +1937,74 @@
   </si>
   <si>
     <t>Spell.csv;monster.csv;MobaGoods.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推塔小龙打击体验优化</t>
+  </si>
+  <si>
+    <t>战场结束评分优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarEvaluate.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复小兵打龙伤害高bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect.csv;Spelllogic.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理不同怪物间相同技能的调用</t>
+  </si>
+  <si>
+    <t>Buff.xml;Effect.csv;Monster.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除辅助出门装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobaGoods.csv;MobaGoodsRecomand.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场评分优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltips.csv;WarEvaluate.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女枪数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff.xml;Effect.csv;Spelllogic.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女枪回退2</t>
+  </si>
+  <si>
+    <t>Spell.csv;Spelllogic.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼冷却提示</t>
+  </si>
+  <si>
+    <t>SystemMessage.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2465,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="D248" sqref="D248"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="C254" sqref="C254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -8881,7 +8949,15 @@
       </c>
     </row>
     <row r="249" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D249" s="12"/>
+      <c r="B249" s="9">
+        <v>3</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>482</v>
+      </c>
       <c r="E249" s="5" t="s">
         <v>9</v>
       </c>
@@ -8893,11 +8969,19 @@
       </c>
       <c r="H249" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>邱向遥【全版本】[内部知晓]:。(修改文件:)</v>
+        <v>邱向遥【全版本】[内部知晓]:推塔小龙打击体验优化。(修改文件:Effect.csv)</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D250" s="12"/>
+      <c r="B250" s="9">
+        <v>4</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D250" s="12" t="s">
+        <v>483</v>
+      </c>
       <c r="E250" s="5" t="s">
         <v>9</v>
       </c>
@@ -8909,11 +8993,22 @@
       </c>
       <c r="H250" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>邱向遥【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D251" s="12"/>
+        <v>邱向遥【全版本】[内部知晓]:战场结束评分优化。(修改文件:WarEvaluate.csv)</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A251" s="11">
+        <v>43092</v>
+      </c>
+      <c r="B251" s="9">
+        <v>1</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D251" s="12" t="s">
+        <v>485</v>
+      </c>
       <c r="E251" s="5" t="s">
         <v>9</v>
       </c>
@@ -8925,11 +9020,22 @@
       </c>
       <c r="H251" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>邱向遥【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D252" s="12"/>
+        <v>邱向遥【全版本】[内部知晓]:修复小兵打龙伤害高bug。(修改文件:Effect.csv;Spelllogic.csv)</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A252" s="11">
+        <v>43094</v>
+      </c>
+      <c r="B252" s="9">
+        <v>1</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>487</v>
+      </c>
       <c r="E252" s="5" t="s">
         <v>9</v>
       </c>
@@ -8941,11 +9047,19 @@
       </c>
       <c r="H252" s="8" t="str">
         <f t="shared" si="47"/>
-        <v>邱向遥【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D253" s="12"/>
+        <v>邱向遥【全版本】[内部知晓]:整理不同怪物间相同技能的调用。(修改文件:Buff.xml;Effect.csv;Monster.csv)</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="B253" s="9">
+        <v>2</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>489</v>
+      </c>
       <c r="E253" s="5" t="s">
         <v>9</v>
       </c>
@@ -8957,38 +9071,148 @@
       </c>
       <c r="H253" s="8" t="str">
         <f t="shared" si="47"/>
+        <v>邱向遥【全版本】[内部知晓]:删除辅助出门装。(修改文件:MobaGoods.csv;MobaGoodsRecomand.csv)</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B254" s="9">
+        <v>3</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="D254" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G254" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H254" s="8" t="str">
+        <f t="shared" ref="H254:H259" si="48">CONCATENATE(F254,"","【",E254,"】[",G254,"]:",C254,"。(修改文件:",D254,")")</f>
+        <v>邱向遥【全版本】[内部知晓]:战场评分优化。(修改文件:Tooltips.csv;WarEvaluate.csv)</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A255" s="11">
+        <v>43095</v>
+      </c>
+      <c r="B255" s="9">
+        <v>1</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="D255" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G255" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H255" s="8" t="str">
+        <f t="shared" si="48"/>
+        <v>邱向遥【全版本】[内部知晓]:女枪数值。(修改文件:Buff.xml;Effect.csv;Spelllogic.csv)</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A256" s="11">
+        <v>43096</v>
+      </c>
+      <c r="B256" s="9">
+        <v>1</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="D256" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G256" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H256" s="8" t="str">
+        <f t="shared" si="48"/>
+        <v>邱向遥【全版本】[内部知晓]:女枪回退2。(修改文件:Spell.csv;Spelllogic.csv)</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B257" s="9">
+        <v>2</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D257" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G257" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H257" s="8" t="str">
+        <f t="shared" si="48"/>
+        <v>邱向遥【全版本】[内部知晓]:眼冷却提示。(修改文件:SystemMessage.csv)</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D258" s="12"/>
+      <c r="E258" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G258" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H258" s="8" t="str">
+        <f t="shared" si="48"/>
         <v>邱向遥【全版本】[内部知晓]:。(修改文件:)</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D254" s="12"/>
-      <c r="F254" s="13"/>
-    </row>
-    <row r="255" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D255" s="12"/>
-      <c r="F255" s="13"/>
-    </row>
-    <row r="256" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D256" s="12"/>
-      <c r="F256" s="13"/>
-    </row>
-    <row r="257" spans="4:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D257" s="12"/>
-      <c r="F257" s="13"/>
-    </row>
-    <row r="258" spans="4:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D258" s="12"/>
-      <c r="F258" s="13"/>
-    </row>
-    <row r="259" spans="4:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D259" s="12"/>
-      <c r="F259" s="13"/>
-    </row>
-    <row r="260" spans="4:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E259" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G259" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H259" s="8" t="str">
+        <f t="shared" si="48"/>
+        <v>邱向遥【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D260" s="12"/>
       <c r="F260" s="13"/>
     </row>
-    <row r="261" spans="4:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D261" s="12"/>
       <c r="F261" s="13"/>
     </row>
@@ -9001,10 +9225,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 JC1 SY1 ACU1 AMQ1 AWM1 BGI1 BQE1 CAA1 CJW1 CTS1 DDO1 DNK1 DXG1 EHC1 EQY1 FAU1 FKQ1 FUM1 GEI1 GOE1 GYA1 HHW1 HRS1 IBO1 ILK1 IVG1 JFC1 JOY1 JYU1 KIQ1 KSM1 LCI1 LME1 LWA1 MFW1 MPS1 MZO1 NJK1 NTG1 ODC1 OMY1 OWU1 PGQ1 PQM1 QAI1 QKE1 QUA1 RDW1 RNS1 RXO1 SHK1 SRG1 TBC1 TKY1 TUU1 UEQ1 UOM1 UYI1 VIE1 VSA1 WBW1 WLS1 WVO1">
       <formula1>"内部知晓,新增,修改"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JC2:JC23 SY2:SY23 WVO2:WVO23 WLS2:WLS23 WBW2:WBW23 VSA2:VSA23 VIE2:VIE23 UYI2:UYI23 UOM2:UOM23 UEQ2:UEQ23 TUU2:TUU23 TKY2:TKY23 TBC2:TBC23 SRG2:SRG23 SHK2:SHK23 RXO2:RXO23 RNS2:RNS23 RDW2:RDW23 QUA2:QUA23 QKE2:QKE23 QAI2:QAI23 PQM2:PQM23 PGQ2:PGQ23 OWU2:OWU23 OMY2:OMY23 ODC2:ODC23 NTG2:NTG23 NJK2:NJK23 MZO2:MZO23 MPS2:MPS23 MFW2:MFW23 LWA2:LWA23 LME2:LME23 LCI2:LCI23 KSM2:KSM23 KIQ2:KIQ23 JYU2:JYU23 JOY2:JOY23 JFC2:JFC23 IVG2:IVG23 ILK2:ILK23 IBO2:IBO23 HRS2:HRS23 HHW2:HHW23 GYA2:GYA23 GOE2:GOE23 GEI2:GEI23 FUM2:FUM23 FKQ2:FKQ23 FAU2:FAU23 EQY2:EQY23 EHC2:EHC23 DXG2:DXG23 DNK2:DNK23 DDO2:DDO23 CTS2:CTS23 CJW2:CJW23 CAA2:CAA23 BQE2:BQE23 BGI2:BGI23 AWM2:AWM23 AMQ2:AMQ23 ACU2:ACU23 G2:G253">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JC2:JC23 SY2:SY23 WVO2:WVO23 WLS2:WLS23 WBW2:WBW23 VSA2:VSA23 VIE2:VIE23 UYI2:UYI23 UOM2:UOM23 UEQ2:UEQ23 TUU2:TUU23 TKY2:TKY23 TBC2:TBC23 SRG2:SRG23 SHK2:SHK23 RXO2:RXO23 RNS2:RNS23 RDW2:RDW23 QUA2:QUA23 QKE2:QKE23 QAI2:QAI23 PQM2:PQM23 PGQ2:PGQ23 OWU2:OWU23 OMY2:OMY23 ODC2:ODC23 NTG2:NTG23 NJK2:NJK23 MZO2:MZO23 MPS2:MPS23 MFW2:MFW23 LWA2:LWA23 LME2:LME23 LCI2:LCI23 KSM2:KSM23 KIQ2:KIQ23 JYU2:JYU23 JOY2:JOY23 JFC2:JFC23 IVG2:IVG23 ILK2:ILK23 IBO2:IBO23 HRS2:HRS23 HHW2:HHW23 GYA2:GYA23 GOE2:GOE23 GEI2:GEI23 FUM2:FUM23 FKQ2:FKQ23 FAU2:FAU23 EQY2:EQY23 EHC2:EHC23 DXG2:DXG23 DNK2:DNK23 DDO2:DDO23 CTS2:CTS23 CJW2:CJW23 CAA2:CAA23 BQE2:BQE23 BGI2:BGI23 AWM2:AWM23 AMQ2:AMQ23 ACU2:ACU23 G2:G259">
       <formula1>$Q$2:$Q$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JA2:JA23 SW2:SW23 WVM2:WVM23 WLQ2:WLQ23 WBU2:WBU23 VRY2:VRY23 VIC2:VIC23 UYG2:UYG23 UOK2:UOK23 UEO2:UEO23 TUS2:TUS23 TKW2:TKW23 TBA2:TBA23 SRE2:SRE23 SHI2:SHI23 RXM2:RXM23 RNQ2:RNQ23 RDU2:RDU23 QTY2:QTY23 QKC2:QKC23 QAG2:QAG23 PQK2:PQK23 PGO2:PGO23 OWS2:OWS23 OMW2:OMW23 ODA2:ODA23 NTE2:NTE23 NJI2:NJI23 MZM2:MZM23 MPQ2:MPQ23 MFU2:MFU23 LVY2:LVY23 LMC2:LMC23 LCG2:LCG23 KSK2:KSK23 KIO2:KIO23 JYS2:JYS23 JOW2:JOW23 JFA2:JFA23 IVE2:IVE23 ILI2:ILI23 IBM2:IBM23 HRQ2:HRQ23 HHU2:HHU23 GXY2:GXY23 GOC2:GOC23 GEG2:GEG23 FUK2:FUK23 FKO2:FKO23 FAS2:FAS23 EQW2:EQW23 EHA2:EHA23 DXE2:DXE23 DNI2:DNI23 DDM2:DDM23 CTQ2:CTQ23 CJU2:CJU23 BZY2:BZY23 BQC2:BQC23 BGG2:BGG23 AWK2:AWK23 AMO2:AMO23 ACS2:ACS23 E2:E253">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JA2:JA23 SW2:SW23 WVM2:WVM23 WLQ2:WLQ23 WBU2:WBU23 VRY2:VRY23 VIC2:VIC23 UYG2:UYG23 UOK2:UOK23 UEO2:UEO23 TUS2:TUS23 TKW2:TKW23 TBA2:TBA23 SRE2:SRE23 SHI2:SHI23 RXM2:RXM23 RNQ2:RNQ23 RDU2:RDU23 QTY2:QTY23 QKC2:QKC23 QAG2:QAG23 PQK2:PQK23 PGO2:PGO23 OWS2:OWS23 OMW2:OMW23 ODA2:ODA23 NTE2:NTE23 NJI2:NJI23 MZM2:MZM23 MPQ2:MPQ23 MFU2:MFU23 LVY2:LVY23 LMC2:LMC23 LCG2:LCG23 KSK2:KSK23 KIO2:KIO23 JYS2:JYS23 JOW2:JOW23 JFA2:JFA23 IVE2:IVE23 ILI2:ILI23 IBM2:IBM23 HRQ2:HRQ23 HHU2:HHU23 GXY2:GXY23 GOC2:GOC23 GEG2:GEG23 FUK2:FUK23 FKO2:FKO23 FAS2:FAS23 EQW2:EQW23 EHA2:EHA23 DXE2:DXE23 DNI2:DNI23 DDM2:DDM23 CTQ2:CTQ23 CJU2:CJU23 BZY2:BZY23 BQC2:BQC23 BGG2:BGG23 AWK2:AWK23 AMO2:AMO23 ACS2:ACS23 E2:E259">
       <formula1>$O$2:$O$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Document/更新日记/策划/【Titan】脚本更新记录_邱向遥.xlsx
+++ b/Document/更新日记/策划/【Titan】脚本更新记录_邱向遥.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2280" windowWidth="19200" windowHeight="9450"/>
+    <workbookView xWindow="0" yWindow="2310" windowWidth="19200" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="503">
   <si>
     <t>更新日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2006,15 +2006,29 @@
   <si>
     <t>SystemMessage.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除巨龙战士免疫暴击</t>
+  </si>
+  <si>
+    <t>Buff.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备伤害技能图标</t>
+  </si>
+  <si>
+    <t>Spell.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小炮Q不能触发决胜控制bug修复</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2119,7 +2133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2158,9 +2172,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2531,10 +2542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H261"/>
+  <dimension ref="A1:H262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="C254" sqref="C254"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="H255" sqref="H255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -9152,7 +9163,7 @@
         <v>邱向遥【全版本】[内部知晓]:女枪回退2。(修改文件:Spell.csv;Spelllogic.csv)</v>
       </c>
     </row>
-    <row r="257" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B257" s="9">
         <v>2</v>
       </c>
@@ -9176,8 +9187,19 @@
         <v>邱向遥【全版本】[内部知晓]:眼冷却提示。(修改文件:SystemMessage.csv)</v>
       </c>
     </row>
-    <row r="258" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D258" s="12"/>
+    <row r="258" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A258" s="11">
+        <v>43097</v>
+      </c>
+      <c r="B258" s="9">
+        <v>1</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D258" s="12" t="s">
+        <v>499</v>
+      </c>
       <c r="E258" s="5" t="s">
         <v>9</v>
       </c>
@@ -9189,11 +9211,19 @@
       </c>
       <c r="H258" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>邱向遥【全版本】[内部知晓]:。(修改文件:)</v>
-      </c>
-    </row>
-    <row r="259" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D259" s="12"/>
+        <v>邱向遥【全版本】[内部知晓]:删除巨龙战士免疫暴击。(修改文件:Buff.xml)</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B259" s="9">
+        <v>2</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="D259" s="12" t="s">
+        <v>501</v>
+      </c>
       <c r="E259" s="5" t="s">
         <v>9</v>
       </c>
@@ -9205,16 +9235,63 @@
       </c>
       <c r="H259" s="8" t="str">
         <f t="shared" si="48"/>
+        <v>邱向遥【全版本】[内部知晓]:装备伤害技能图标。(修改文件:Spell.csv)</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B260" s="9">
+        <v>3</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D260" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G260" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H260" s="8" t="str">
+        <f t="shared" ref="H260:H262" si="49">CONCATENATE(F260,"","【",E260,"】[",G260,"]:",C260,"。(修改文件:",D260,")")</f>
+        <v>邱向遥【全版本】[内部知晓]:小炮Q不能触发决胜控制bug修复。(修改文件:Buff.xml)</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D261" s="12"/>
+      <c r="E261" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G261" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H261" s="8" t="str">
+        <f t="shared" si="49"/>
         <v>邱向遥【全版本】[内部知晓]:。(修改文件:)</v>
       </c>
     </row>
-    <row r="260" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D260" s="12"/>
-      <c r="F260" s="13"/>
-    </row>
-    <row r="261" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D261" s="12"/>
-      <c r="F261" s="13"/>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E262" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G262" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H262" s="8" t="str">
+        <f t="shared" si="49"/>
+        <v>邱向遥【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9225,10 +9302,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 JC1 SY1 ACU1 AMQ1 AWM1 BGI1 BQE1 CAA1 CJW1 CTS1 DDO1 DNK1 DXG1 EHC1 EQY1 FAU1 FKQ1 FUM1 GEI1 GOE1 GYA1 HHW1 HRS1 IBO1 ILK1 IVG1 JFC1 JOY1 JYU1 KIQ1 KSM1 LCI1 LME1 LWA1 MFW1 MPS1 MZO1 NJK1 NTG1 ODC1 OMY1 OWU1 PGQ1 PQM1 QAI1 QKE1 QUA1 RDW1 RNS1 RXO1 SHK1 SRG1 TBC1 TKY1 TUU1 UEQ1 UOM1 UYI1 VIE1 VSA1 WBW1 WLS1 WVO1">
       <formula1>"内部知晓,新增,修改"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JC2:JC23 SY2:SY23 WVO2:WVO23 WLS2:WLS23 WBW2:WBW23 VSA2:VSA23 VIE2:VIE23 UYI2:UYI23 UOM2:UOM23 UEQ2:UEQ23 TUU2:TUU23 TKY2:TKY23 TBC2:TBC23 SRG2:SRG23 SHK2:SHK23 RXO2:RXO23 RNS2:RNS23 RDW2:RDW23 QUA2:QUA23 QKE2:QKE23 QAI2:QAI23 PQM2:PQM23 PGQ2:PGQ23 OWU2:OWU23 OMY2:OMY23 ODC2:ODC23 NTG2:NTG23 NJK2:NJK23 MZO2:MZO23 MPS2:MPS23 MFW2:MFW23 LWA2:LWA23 LME2:LME23 LCI2:LCI23 KSM2:KSM23 KIQ2:KIQ23 JYU2:JYU23 JOY2:JOY23 JFC2:JFC23 IVG2:IVG23 ILK2:ILK23 IBO2:IBO23 HRS2:HRS23 HHW2:HHW23 GYA2:GYA23 GOE2:GOE23 GEI2:GEI23 FUM2:FUM23 FKQ2:FKQ23 FAU2:FAU23 EQY2:EQY23 EHC2:EHC23 DXG2:DXG23 DNK2:DNK23 DDO2:DDO23 CTS2:CTS23 CJW2:CJW23 CAA2:CAA23 BQE2:BQE23 BGI2:BGI23 AWM2:AWM23 AMQ2:AMQ23 ACU2:ACU23 G2:G259">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JC2:JC23 SY2:SY23 WVO2:WVO23 WLS2:WLS23 WBW2:WBW23 VSA2:VSA23 VIE2:VIE23 UYI2:UYI23 UOM2:UOM23 UEQ2:UEQ23 TUU2:TUU23 TKY2:TKY23 TBC2:TBC23 SRG2:SRG23 SHK2:SHK23 RXO2:RXO23 RNS2:RNS23 RDW2:RDW23 QUA2:QUA23 QKE2:QKE23 QAI2:QAI23 PQM2:PQM23 PGQ2:PGQ23 OWU2:OWU23 OMY2:OMY23 ODC2:ODC23 NTG2:NTG23 NJK2:NJK23 MZO2:MZO23 MPS2:MPS23 MFW2:MFW23 LWA2:LWA23 LME2:LME23 LCI2:LCI23 KSM2:KSM23 KIQ2:KIQ23 JYU2:JYU23 JOY2:JOY23 JFC2:JFC23 IVG2:IVG23 ILK2:ILK23 IBO2:IBO23 HRS2:HRS23 HHW2:HHW23 GYA2:GYA23 GOE2:GOE23 GEI2:GEI23 FUM2:FUM23 FKQ2:FKQ23 FAU2:FAU23 EQY2:EQY23 EHC2:EHC23 DXG2:DXG23 DNK2:DNK23 DDO2:DDO23 CTS2:CTS23 CJW2:CJW23 CAA2:CAA23 BQE2:BQE23 BGI2:BGI23 AWM2:AWM23 AMQ2:AMQ23 ACU2:ACU23 G2:G262">
       <formula1>$Q$2:$Q$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JA2:JA23 SW2:SW23 WVM2:WVM23 WLQ2:WLQ23 WBU2:WBU23 VRY2:VRY23 VIC2:VIC23 UYG2:UYG23 UOK2:UOK23 UEO2:UEO23 TUS2:TUS23 TKW2:TKW23 TBA2:TBA23 SRE2:SRE23 SHI2:SHI23 RXM2:RXM23 RNQ2:RNQ23 RDU2:RDU23 QTY2:QTY23 QKC2:QKC23 QAG2:QAG23 PQK2:PQK23 PGO2:PGO23 OWS2:OWS23 OMW2:OMW23 ODA2:ODA23 NTE2:NTE23 NJI2:NJI23 MZM2:MZM23 MPQ2:MPQ23 MFU2:MFU23 LVY2:LVY23 LMC2:LMC23 LCG2:LCG23 KSK2:KSK23 KIO2:KIO23 JYS2:JYS23 JOW2:JOW23 JFA2:JFA23 IVE2:IVE23 ILI2:ILI23 IBM2:IBM23 HRQ2:HRQ23 HHU2:HHU23 GXY2:GXY23 GOC2:GOC23 GEG2:GEG23 FUK2:FUK23 FKO2:FKO23 FAS2:FAS23 EQW2:EQW23 EHA2:EHA23 DXE2:DXE23 DNI2:DNI23 DDM2:DDM23 CTQ2:CTQ23 CJU2:CJU23 BZY2:BZY23 BQC2:BQC23 BGG2:BGG23 AWK2:AWK23 AMO2:AMO23 ACS2:ACS23 E2:E259">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JA2:JA23 SW2:SW23 WVM2:WVM23 WLQ2:WLQ23 WBU2:WBU23 VRY2:VRY23 VIC2:VIC23 UYG2:UYG23 UOK2:UOK23 UEO2:UEO23 TUS2:TUS23 TKW2:TKW23 TBA2:TBA23 SRE2:SRE23 SHI2:SHI23 RXM2:RXM23 RNQ2:RNQ23 RDU2:RDU23 QTY2:QTY23 QKC2:QKC23 QAG2:QAG23 PQK2:PQK23 PGO2:PGO23 OWS2:OWS23 OMW2:OMW23 ODA2:ODA23 NTE2:NTE23 NJI2:NJI23 MZM2:MZM23 MPQ2:MPQ23 MFU2:MFU23 LVY2:LVY23 LMC2:LMC23 LCG2:LCG23 KSK2:KSK23 KIO2:KIO23 JYS2:JYS23 JOW2:JOW23 JFA2:JFA23 IVE2:IVE23 ILI2:ILI23 IBM2:IBM23 HRQ2:HRQ23 HHU2:HHU23 GXY2:GXY23 GOC2:GOC23 GEG2:GEG23 FUK2:FUK23 FKO2:FKO23 FAS2:FAS23 EQW2:EQW23 EHA2:EHA23 DXE2:DXE23 DNI2:DNI23 DDM2:DDM23 CTQ2:CTQ23 CJU2:CJU23 BZY2:BZY23 BQC2:BQC23 BGG2:BGG23 AWK2:AWK23 AMO2:AMO23 ACS2:ACS23 E2:E262">
       <formula1>$O$2:$O$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Document/更新日记/策划/【Titan】脚本更新记录_邱向遥.xlsx
+++ b/Document/更新日记/策划/【Titan】脚本更新记录_邱向遥.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="506">
   <si>
     <t>更新日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2023,6 +2023,16 @@
   </si>
   <si>
     <t>小炮Q不能触发决胜控制bug修复</t>
+  </si>
+  <si>
+    <t>小炮Q触发团控三人</t>
+  </si>
+  <si>
+    <t>修复小鹿E对大招影响</t>
+  </si>
+  <si>
+    <t>Spellogic.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2545,7 +2555,7 @@
   <dimension ref="A1:H262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="H255" sqref="H255"/>
+      <selection activeCell="D263" sqref="D263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -9263,7 +9273,15 @@
       </c>
     </row>
     <row r="261" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D261" s="12"/>
+      <c r="B261" s="9">
+        <v>4</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="D261" s="12" t="s">
+        <v>499</v>
+      </c>
       <c r="E261" s="5" t="s">
         <v>9</v>
       </c>
@@ -9275,10 +9293,19 @@
       </c>
       <c r="H261" s="8" t="str">
         <f t="shared" si="49"/>
-        <v>邱向遥【全版本】[内部知晓]:。(修改文件:)</v>
+        <v>邱向遥【全版本】[内部知晓]:小炮Q触发团控三人。(修改文件:Buff.xml)</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B262" s="9">
+        <v>5</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>505</v>
+      </c>
       <c r="E262" s="5" t="s">
         <v>9</v>
       </c>
@@ -9290,7 +9317,7 @@
       </c>
       <c r="H262" s="8" t="str">
         <f t="shared" si="49"/>
-        <v>邱向遥【全版本】[内部知晓]:。(修改文件:)</v>
+        <v>邱向遥【全版本】[内部知晓]:修复小鹿E对大招影响。(修改文件:Spellogic.csv)</v>
       </c>
     </row>
   </sheetData>
